--- a/Resources/batchSendEmail/表头base.xlsx
+++ b/Resources/batchSendEmail/表头base.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20385"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6053587B-49AC-4864-9F83-497A66287905}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB85B4E9-2DD4-4A86-B316-E8370BBB4C23}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t xml:space="preserve">                                                                                     工资条</t>
   </si>
@@ -127,12 +127,25 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>通讯
+补贴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>岗位
+津贴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>工龄
+工资</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>sc.jin@wuyuan-tec.com</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>752724895@qq.com</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -202,7 +215,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -260,21 +273,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -288,9 +292,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -324,6 +325,10 @@
     <xf numFmtId="176" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -605,146 +610,161 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W5"/>
+  <dimension ref="A1:Z5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U7" sqref="U7"/>
+      <selection activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="9" max="9" width="27.25" customWidth="1"/>
-    <col min="23" max="23" width="21.75" customWidth="1"/>
+    <col min="12" max="12" width="27.25" customWidth="1"/>
+    <col min="26" max="26" width="21.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:26" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
     </row>
-    <row r="2" spans="1:23" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="K2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7" t="s">
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="V2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="W2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="X2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="Y2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="W2" s="7" t="s">
+      <c r="Z2" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="30" x14ac:dyDescent="0.2">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="1" t="s">
+    <row r="3" spans="1:26" ht="30" x14ac:dyDescent="0.2">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="S3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="T3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -757,65 +777,72 @@
       <c r="D4" s="4">
         <v>4</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="16">
         <v>5</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="16">
         <v>6</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="16">
+        <v>111.11</v>
+      </c>
+      <c r="H4" s="16">
+        <v>111.22</v>
+      </c>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16">
         <v>7</v>
       </c>
-      <c r="H4" s="4">
+      <c r="K4" s="16">
         <v>8</v>
       </c>
-      <c r="I4" s="5">
+      <c r="L4" s="17">
         <v>9</v>
       </c>
-      <c r="J4" s="4">
+      <c r="M4" s="16">
         <v>10000.99</v>
       </c>
-      <c r="K4" s="4">
+      <c r="N4" s="16">
         <v>11</v>
       </c>
-      <c r="L4" s="4">
+      <c r="O4" s="16">
         <v>12</v>
       </c>
-      <c r="M4" s="4">
+      <c r="P4" s="16">
         <v>13</v>
       </c>
-      <c r="N4" s="4">
+      <c r="Q4" s="16">
         <v>14</v>
       </c>
-      <c r="O4" s="4">
+      <c r="R4" s="16">
         <v>15</v>
       </c>
-      <c r="P4" s="4">
+      <c r="S4" s="16">
         <v>16</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="T4" s="16">
         <v>17</v>
       </c>
-      <c r="R4" s="4">
+      <c r="U4" s="16">
         <v>18</v>
       </c>
-      <c r="S4" s="4">
+      <c r="V4" s="16">
         <v>19</v>
       </c>
-      <c r="T4" s="4">
+      <c r="W4" s="16">
         <v>20</v>
       </c>
-      <c r="U4" s="4">
+      <c r="X4" s="4">
         <v>21</v>
       </c>
-      <c r="V4" s="4">
+      <c r="Y4" s="4">
         <v>22</v>
       </c>
-      <c r="W4" s="6" t="s">
-        <v>26</v>
+      <c r="Z4" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>11</v>
       </c>
@@ -828,89 +855,95 @@
       <c r="D5" s="4">
         <v>41</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="16">
         <v>51</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="16">
         <v>61</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="16">
+        <v>222.11</v>
+      </c>
+      <c r="H5" s="16">
+        <v>222.22</v>
+      </c>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16">
         <v>71</v>
       </c>
-      <c r="H5" s="4">
+      <c r="K5" s="16">
         <v>81</v>
       </c>
-      <c r="I5" s="5">
+      <c r="L5" s="17">
         <v>91</v>
       </c>
-      <c r="J5" s="4">
+      <c r="M5" s="16">
         <v>20000.990000000002</v>
       </c>
-      <c r="K5" s="4">
+      <c r="N5" s="16">
         <v>211</v>
       </c>
-      <c r="L5" s="4">
+      <c r="O5" s="16">
         <v>212</v>
       </c>
-      <c r="M5" s="4">
+      <c r="P5" s="16">
         <v>213</v>
       </c>
-      <c r="N5" s="4">
+      <c r="Q5" s="16">
         <v>214</v>
       </c>
-      <c r="O5" s="4">
+      <c r="R5" s="16">
         <v>215</v>
       </c>
-      <c r="P5" s="4">
+      <c r="S5" s="16">
         <v>216</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="T5" s="16">
         <v>217</v>
       </c>
-      <c r="R5" s="4">
+      <c r="U5" s="16">
         <v>218</v>
       </c>
-      <c r="S5" s="4">
+      <c r="V5" s="16">
         <v>219</v>
       </c>
-      <c r="T5" s="4">
+      <c r="W5" s="16">
         <v>220</v>
       </c>
-      <c r="U5" s="4">
+      <c r="X5" s="4">
         <v>221</v>
       </c>
-      <c r="V5" s="4">
+      <c r="Y5" s="4">
         <v>222</v>
       </c>
-      <c r="W5" s="6" t="s">
-        <v>27</v>
+      <c r="Z5" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="A1:W1"/>
+  <mergeCells count="19">
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="A1:Z1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="L2:Q2"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="O2:T2"/>
     <mergeCell ref="U2:U3"/>
     <mergeCell ref="V2:V3"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="Y2:Y3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="W4" r:id="rId1" xr:uid="{42B4C809-F088-49FF-8994-8538FE18A4F5}"/>
-    <hyperlink ref="W5" r:id="rId2" xr:uid="{0AE298B3-1D38-42FD-AEDA-FC8893CC5FAC}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Resources/batchSendEmail/表头base.xlsx
+++ b/Resources/batchSendEmail/表头base.xlsx
@@ -1,59 +1,67 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20385"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB85B4E9-2DD4-4A86-B316-E8370BBB4C23}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20387"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Backup\桌面\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB857CE-92B4-4D9A-8AE3-A72D21DBA363}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t xml:space="preserve">                                                                                     工资条</t>
   </si>
   <si>
     <t>序号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>月份</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>职工
 姓名</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>部门</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>岗位
 工资</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>技能
 工资</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通讯
+补贴</t>
+  </si>
+  <si>
+    <t>岗位
+津贴</t>
+  </si>
+  <si>
+    <t>工龄
+工资</t>
+  </si>
+  <si>
+    <t>高温费</t>
   </si>
   <si>
     <t>餐费补贴</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>代扣代缴部分</t>
@@ -63,89 +71,62 @@
   </si>
   <si>
     <t>应税工资</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>代扣个人所得税</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>岗位实发工资</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>技能绩效实发工资</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>合计</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> 邮箱地址</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>社保基数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>个人养老|个人失业|个人医疗</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>个人公积金</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>个人小计</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>病假天数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>病假扣款</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>事假天数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>事假扣款</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>迟到
 扣款</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>小计</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>通讯
-补贴</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>岗位
-津贴</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>工龄
-工资</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>sc.jin@wuyuan-tec.com</t>
   </si>
   <si>
     <t>752724895@qq.com</t>
+  </si>
+  <si>
+    <t>h.chen@wuyuan-tec.com</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -155,20 +136,12 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -180,19 +153,35 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -215,7 +204,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -264,6 +253,17 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top style="thin">
         <color auto="1"/>
@@ -276,59 +276,77 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -336,6 +354,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF0000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -390,7 +413,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -425,7 +448,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -600,249 +623,267 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z5"/>
+  <dimension ref="A1:AA6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T18" sqref="T18"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="L4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="Y11" sqref="Y11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="12" max="12" width="27.25" customWidth="1"/>
-    <col min="26" max="26" width="21.75" customWidth="1"/>
+    <col min="4" max="4" width="12.875" customWidth="1"/>
+    <col min="5" max="11" width="12.625" style="1"/>
+    <col min="13" max="13" width="27.25" customWidth="1"/>
+    <col min="15" max="15" width="9" style="1"/>
+    <col min="17" max="17" width="12.625" style="1"/>
+    <col min="19" max="19" width="12.625" style="1"/>
+    <col min="20" max="20" width="9" style="1"/>
+    <col min="21" max="24" width="12.625" style="1"/>
+    <col min="25" max="25" width="10.375" style="1"/>
+    <col min="26" max="26" width="11.5" style="1"/>
+    <col min="27" max="27" width="24.125" customWidth="1"/>
+    <col min="28" max="28" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:27" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="15"/>
     </row>
-    <row r="2" spans="1:26" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:27" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="W2" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="X2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y2" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA2" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="30" x14ac:dyDescent="0.2">
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="R3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="S3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="T3" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="V2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="W2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="X2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z2" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="U3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="V3" s="13"/>
+      <c r="W3" s="13"/>
+      <c r="X3" s="13"/>
+      <c r="Y3" s="13"/>
+      <c r="Z3" s="13"/>
+      <c r="AA3" s="13"/>
     </row>
-    <row r="3" spans="1:26" ht="30" x14ac:dyDescent="0.2">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
+    <row r="4" spans="1:27" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>2</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="5">
         <v>4</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="6">
         <v>5</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="6">
         <v>6</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="6">
         <v>111.11</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="6">
         <v>111.22</v>
       </c>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16">
+      <c r="I4" s="6">
+        <v>1</v>
+      </c>
+      <c r="J4" s="6">
+        <v>99.9</v>
+      </c>
+      <c r="K4" s="6">
         <v>7</v>
       </c>
-      <c r="K4" s="16">
+      <c r="L4" s="5">
         <v>8</v>
       </c>
-      <c r="L4" s="17">
+      <c r="M4" s="5">
         <v>9</v>
       </c>
-      <c r="M4" s="16">
+      <c r="N4" s="5">
         <v>10000.99</v>
       </c>
-      <c r="N4" s="16">
+      <c r="O4" s="6">
         <v>11</v>
       </c>
-      <c r="O4" s="16">
+      <c r="P4" s="5">
         <v>12</v>
       </c>
-      <c r="P4" s="16">
+      <c r="Q4" s="6">
         <v>13</v>
       </c>
-      <c r="Q4" s="16">
+      <c r="R4" s="6">
         <v>14</v>
       </c>
-      <c r="R4" s="16">
+      <c r="S4" s="6">
         <v>15</v>
       </c>
-      <c r="S4" s="16">
+      <c r="T4" s="6">
         <v>16</v>
       </c>
-      <c r="T4" s="16">
+      <c r="U4" s="6">
         <v>17</v>
       </c>
-      <c r="U4" s="16">
+      <c r="V4" s="6">
         <v>18</v>
       </c>
-      <c r="V4" s="16">
+      <c r="W4" s="7">
         <v>19</v>
       </c>
-      <c r="W4" s="16">
+      <c r="X4" s="7">
         <v>20</v>
       </c>
-      <c r="X4" s="4">
+      <c r="Y4" s="10">
         <v>21</v>
       </c>
-      <c r="Y4" s="4">
+      <c r="Z4" s="4">
         <v>22</v>
       </c>
-      <c r="Z4" s="5" t="s">
-        <v>29</v>
+      <c r="AA4" s="11" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>11</v>
       </c>
@@ -855,95 +896,192 @@
       <c r="D5" s="4">
         <v>41</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="7">
         <v>51</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="7">
         <v>61</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="7">
         <v>222.11</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="7">
         <v>222.22</v>
       </c>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16">
+      <c r="I5" s="7">
+        <v>2</v>
+      </c>
+      <c r="J5" s="7">
+        <v>99.99</v>
+      </c>
+      <c r="K5" s="7">
         <v>71</v>
       </c>
-      <c r="K5" s="16">
+      <c r="L5" s="4">
         <v>81</v>
       </c>
-      <c r="L5" s="17">
+      <c r="M5" s="4">
         <v>91</v>
       </c>
-      <c r="M5" s="16">
+      <c r="N5" s="4">
         <v>20000.990000000002</v>
       </c>
-      <c r="N5" s="16">
+      <c r="O5" s="7">
         <v>211</v>
       </c>
-      <c r="O5" s="16">
+      <c r="P5" s="4">
         <v>212</v>
       </c>
-      <c r="P5" s="16">
+      <c r="Q5" s="7">
         <v>213</v>
       </c>
-      <c r="Q5" s="16">
+      <c r="R5" s="7">
         <v>214</v>
       </c>
-      <c r="R5" s="16">
+      <c r="S5" s="7">
         <v>215</v>
       </c>
-      <c r="S5" s="16">
+      <c r="T5" s="7">
         <v>216</v>
       </c>
-      <c r="T5" s="16">
+      <c r="U5" s="7">
         <v>217</v>
       </c>
-      <c r="U5" s="16">
+      <c r="V5" s="7">
         <v>218</v>
       </c>
-      <c r="V5" s="16">
+      <c r="W5" s="7">
         <v>219</v>
       </c>
-      <c r="W5" s="16">
+      <c r="X5" s="7">
         <v>220</v>
       </c>
-      <c r="X5" s="4">
+      <c r="Y5" s="10">
         <v>221</v>
       </c>
-      <c r="Y5" s="4">
+      <c r="Z5" s="4">
         <v>222</v>
       </c>
-      <c r="Z5" s="5" t="s">
-        <v>30</v>
+      <c r="AA5" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>12</v>
+      </c>
+      <c r="B6" s="4">
+        <v>22</v>
+      </c>
+      <c r="C6" s="4">
+        <v>32</v>
+      </c>
+      <c r="D6" s="4">
+        <v>42</v>
+      </c>
+      <c r="E6" s="7">
+        <v>52</v>
+      </c>
+      <c r="F6" s="7">
+        <v>62</v>
+      </c>
+      <c r="G6" s="7">
+        <v>222.12</v>
+      </c>
+      <c r="H6" s="7">
+        <v>222.23</v>
+      </c>
+      <c r="I6" s="7">
+        <v>3</v>
+      </c>
+      <c r="J6" s="7">
+        <v>99.22</v>
+      </c>
+      <c r="K6" s="7">
+        <v>73</v>
+      </c>
+      <c r="L6" s="4">
+        <v>83</v>
+      </c>
+      <c r="M6" s="4">
+        <v>93</v>
+      </c>
+      <c r="N6" s="4">
+        <v>20003.990000000002</v>
+      </c>
+      <c r="O6" s="7">
+        <v>213</v>
+      </c>
+      <c r="P6" s="4">
+        <v>213</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>2133</v>
+      </c>
+      <c r="R6" s="7">
+        <v>213</v>
+      </c>
+      <c r="S6" s="7">
+        <v>213</v>
+      </c>
+      <c r="T6" s="7">
+        <v>213</v>
+      </c>
+      <c r="U6" s="7">
+        <v>213</v>
+      </c>
+      <c r="V6" s="7">
+        <v>213</v>
+      </c>
+      <c r="W6" s="7">
+        <v>219.3</v>
+      </c>
+      <c r="X6" s="7">
+        <v>220.3</v>
+      </c>
+      <c r="Y6" s="10">
+        <v>221.3</v>
+      </c>
+      <c r="Z6" s="4">
+        <v>222.33</v>
+      </c>
+      <c r="AA6" s="11" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
+  <mergeCells count="20">
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="Y2:Y3"/>
     <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="A1:Z1"/>
+    <mergeCell ref="AA2:AA3"/>
+    <mergeCell ref="A1:AA1"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:U2"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="O2:T2"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C9" r:id="rId1" display="mailto:jl.li@wuyuan-tec.com" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C11" r:id="rId2" display="mailto:b.xu@wuyuan-tec.com" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C10" r:id="rId3" display="mailto:xx.li@wuyuan-tec.com" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C16" r:id="rId4" display="mailto:xh.zou@wuyuan-tec.com" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C17" r:id="rId5" display="mailto:l.liu@wuyuan-tec.com" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="AA6" r:id="rId6" xr:uid="{DCB3B575-E6F4-4110-B626-8A513B3C4ECA}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId7"/>
 </worksheet>
 </file>